--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-544668.9912956906</v>
+        <v>-547181.399677054</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1351610849582</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>14.59946548753672</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>138.8797264797548</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.0619627362705</v>
+        <v>116.7942439069697</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>284.7781523974834</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>28.36152683148254</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.8431139798804</v>
+        <v>277.7881817464954</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312.4121655669643</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778477</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>95.5424559684209</v>
       </c>
       <c r="T10" t="n">
-        <v>121.7791400816545</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272899</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>244.316593847065</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465705</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>76.28317487965496</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.6921136716468</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>113.5413580759677</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>219.8787494883747</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>23.05950344416228</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634346</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T27" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U27" t="n">
         <v>225.7478006422472</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819356</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986262</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922672</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892429609</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012075</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016432</v>
       </c>
       <c r="T28" t="n">
-        <v>113.5413580759697</v>
+        <v>217.4054503272867</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892425</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238264</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365894</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890355</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520931</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T30" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U30" t="n">
         <v>225.7478006422472</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>26.70391688091631</v>
       </c>
       <c r="I31" t="n">
-        <v>68.57766702465472</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101224</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016449</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495691117</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T33" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U33" t="n">
         <v>225.7478006422472</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856602</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016449</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>163.9171048773019</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U36" t="n">
         <v>225.7478006422472</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892426539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101224</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016449</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695611</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128565</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364138</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154444</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652633</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808272</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096052</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352487</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445341</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969975</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652567</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.526882613612</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>863.2862738200353</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51211643218345</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267231</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.03470992366</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653546</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653546</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.126722677734</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686074</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064749</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4603107317583</v>
+        <v>2074.779800743214</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>1905.843617815307</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1757.930524232914</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.890905603545</v>
+        <v>2663.844482784513</v>
       </c>
       <c r="X4" t="n">
-        <v>1178.901354705528</v>
+        <v>2435.854931886496</v>
       </c>
       <c r="Y4" t="n">
-        <v>958.1087755619981</v>
+        <v>2215.062352742966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758595</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818183</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.940973211433</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>765.1527206131884</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>354.1668158235809</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3090.980067092905</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2759.917179749334</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2407.14852447922</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2033.68276621814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1643.543434242328</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.867031666736</v>
+        <v>1646.700425112235</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.867031666736</v>
+        <v>1392.015936906348</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.449861629776</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="X7" t="n">
-        <v>776.4603107317583</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1935.366530930991</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1830.78701680726</v>
       </c>
       <c r="T10" t="n">
-        <v>1714.454858440309</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="U10" t="n">
-        <v>1714.454858440309</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="V10" t="n">
-        <v>1714.454858440309</v>
+        <v>1609.020401376785</v>
       </c>
       <c r="W10" t="n">
-        <v>1425.037688403349</v>
+        <v>1319.603231339825</v>
       </c>
       <c r="X10" t="n">
-        <v>1197.048137505331</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.255558361801</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5227,22 +5227,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1797.722346028746</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911441</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835344</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711986</v>
+        <v>774.5813465708488</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>626.6682529884557</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>479.7783054905453</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>312.5822062054253</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>170.8703750476234</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2411.920544517991</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.065710172895</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2009.464245195836</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.464245195836</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1754.779756989949</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1465.362586952989</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.373036054971</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.580456911441</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>983.3556038098224</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>814.4194208819155</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>664.3027814695797</v>
       </c>
       <c r="E19" t="n">
         <v>549.6145409888043</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.407037300152</v>
+        <v>2157.887856924457</v>
       </c>
       <c r="V19" t="n">
-        <v>1567.722549094265</v>
+        <v>1903.20336871857</v>
       </c>
       <c r="W19" t="n">
-        <v>1278.305379057304</v>
+        <v>1613.786198681609</v>
       </c>
       <c r="X19" t="n">
-        <v>1050.315828159287</v>
+        <v>1385.796647783592</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>1165.004068640062</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380872</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611857</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611857</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,70 +6206,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797096</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192372</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111663</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075709</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332372</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014757</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355909</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291067975</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694668</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852212</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398548</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492532</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474737</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466526</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122955</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852841</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591761</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615949</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778459</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967189</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354677</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300122</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568972</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.480995402805</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797096</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797096</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756239</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468414</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962596</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.55359426689</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821492</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6330,16 +6330,16 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.64379568516</v>
       </c>
       <c r="U27" t="n">
         <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.463605996602</v>
       </c>
       <c r="W27" t="n">
         <v>1527.226249268401</v>
@@ -6348,7 +6348,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400816</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121763</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121763</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121763</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121763</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270579</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797096</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797096</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2332.274843099483</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W28" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611864</v>
       </c>
       <c r="X28" t="n">
-        <v>1271.108407302816</v>
+        <v>916.294644713848</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703196</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192434</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111669</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075716</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332372</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014804</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355956</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068022</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694714</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300131</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568981</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028059</v>
       </c>
       <c r="H30" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756248</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468423</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962597</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589144</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143746</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143746</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143746</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518626</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6573,7 +6573,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V30" t="n">
         <v>1781.463605996603</v>
@@ -6582,7 +6582,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.614450297915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>734.646179883585</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>565.7099969556781</v>
       </c>
       <c r="D31" t="n">
-        <v>599.6019060180517</v>
+        <v>415.5933575433423</v>
       </c>
       <c r="E31" t="n">
-        <v>451.6888124356586</v>
+        <v>267.6802639609492</v>
       </c>
       <c r="F31" t="n">
-        <v>304.7988649377482</v>
+        <v>120.7903164630389</v>
       </c>
       <c r="G31" t="n">
-        <v>304.7988649377482</v>
+        <v>120.7903164630389</v>
       </c>
       <c r="H31" t="n">
-        <v>163.0870337799464</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038314</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797691</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.08939327979</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853347</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580245</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832646</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487551</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510492</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.38585385469</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648803</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611842</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138247</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>916.2946447138247</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6680,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797098</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192366</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111662</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075709</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332372</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014757</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355909</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291067976</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694669</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852213</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398549</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778459</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967189</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354677</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300122</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568972</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.480995402805</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797098</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527375</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803904</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516079</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516079</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578155</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132757</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.041646372039</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.041646372039</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6804,16 +6804,16 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.64379568516</v>
       </c>
       <c r="U33" t="n">
         <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.463605996602</v>
       </c>
       <c r="W33" t="n">
         <v>1527.226249268401</v>
@@ -6822,7 +6822,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000578</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797098</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782937</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038305</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797682</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.1502409108</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570806</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279789</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853346</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580244</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580244</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235148</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>816.5764010855555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192464</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111672</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075719</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332373</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014758</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635591</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067977</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694669</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300131</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568981</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028059</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273844</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803913</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516088</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167364</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793911</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348513</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7047,7 +7047,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V36" t="n">
         <v>1781.463605996603</v>
@@ -7056,7 +7056,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y36" t="n">
         <v>1111.614450297915</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400548</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812148</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812148</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812148</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812148</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270279</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038314</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797691</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910801</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.08939327979</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853347</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580245</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832646</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487551</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510492</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.38585385469</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648803</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611842</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138247</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655702946</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192464</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111672</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611076178</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332418</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014804</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355956</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068023</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694715</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300131</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568981</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028059</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273844</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803913</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516088</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167364</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793911</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348513</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7284,7 +7284,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V39" t="n">
         <v>1781.463605996603</v>
@@ -7293,7 +7293,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.614450297915</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580122</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.094482495414</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.82554603807</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231127</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979279</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656404</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382506</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973182</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.2974917172</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931257</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547818</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532415</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838269</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594039</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,31 +7804,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7843,7 +7843,7 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>183.1377306860493</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>371.6384731685169</v>
       </c>
     </row>
     <row r="3">
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>146.2677188295419</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.46103560032054</v>
+        <v>169.7287544296213</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462284</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.821049476951458</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>4.982661438910569</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>31.68313303847489</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>32.89260457060148</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>66.30572490086942</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.3744592024069</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182107</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229296</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392192627</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856437</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.8640922513186</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>113.5907959653077</v>
       </c>
       <c r="I31" t="n">
-        <v>12.6881692939108</v>
+        <v>81.26583631856602</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>66.3752467101224</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>53.48834544998644</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392195861</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856602</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.716671249596402e-11</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1014707.485499534</v>
+        <v>1014707.485499542</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1160552.951963468</v>
+        <v>1160552.951963462</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1160552.951963468</v>
+        <v>1160552.951963469</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437759004</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
@@ -26320,10 +26320,10 @@
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.6448992505</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
         <v>262322.644899252</v>
@@ -26332,25 +26332,25 @@
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.6448992522</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992518</v>
       </c>
       <c r="L2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.6448992518</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058922</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073538</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.312953607903809e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972679</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.984454113175161e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.210644877913486e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551471</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.160516932141035e-09</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24006.46637579611</v>
+        <v>24006.46637579946</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
         <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179089</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179614</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="K4" t="n">
-        <v>11167.03225179346</v>
-      </c>
       <c r="L4" t="n">
+        <v>11167.03225179555</v>
+      </c>
+      <c r="M4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11167.03225179347</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488697</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488697</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26491,19 +26491,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239064</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239069</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239062</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539152</v>
       </c>
       <c r="O5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1231625.508888884</v>
+        <v>-1231916.116053731</v>
       </c>
       <c r="C6" t="n">
-        <v>68550.56762135442</v>
+        <v>68550.56762135398</v>
       </c>
       <c r="D6" t="n">
         <v>68550.56762135398</v>
       </c>
       <c r="E6" t="n">
-        <v>-175379.3789838038</v>
+        <v>-175414.1169092369</v>
       </c>
       <c r="F6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981144</v>
       </c>
       <c r="G6" t="n">
-        <v>150033.0828235514</v>
+        <v>149998.3448981157</v>
       </c>
       <c r="H6" t="n">
-        <v>150033.0828235514</v>
+        <v>149998.3448981157</v>
       </c>
       <c r="I6" t="n">
-        <v>150033.0828235511</v>
+        <v>149998.3448981157</v>
       </c>
       <c r="J6" t="n">
-        <v>-67498.11957372628</v>
+        <v>-67532.85749915396</v>
       </c>
       <c r="K6" t="n">
-        <v>150033.0828235514</v>
+        <v>149998.3448981127</v>
       </c>
       <c r="L6" t="n">
-        <v>150033.0828235513</v>
+        <v>149998.3448981172</v>
       </c>
       <c r="M6" t="n">
-        <v>64978.05488803951</v>
+        <v>64943.31696260096</v>
       </c>
       <c r="N6" t="n">
-        <v>125088.8498434583</v>
+        <v>125088.8498434582</v>
       </c>
       <c r="O6" t="n">
-        <v>144516.56783709</v>
+        <v>144516.5678370837</v>
       </c>
       <c r="P6" t="n">
-        <v>144516.5678370899</v>
+        <v>144516.5678370898</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26759,19 +26759,19 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341665</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099637</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099637</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-7.537460541910401e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022813</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.159605744760484e-11</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-1.490813757028706e-12</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973672</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>40.95225370218253</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27591,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>139.9441193760709</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>126.14357325597</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>222.6336451274194</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>157.3687242257325</v>
+        <v>8.423656459117524</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.32167609651628</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228725</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>94.226569363021</v>
       </c>
       <c r="T10" t="n">
-        <v>97.76980919451472</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28305,10 +28305,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.870891772797547e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.641192009879762e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>4.592038749251514e-11</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.641192009879762e-12</v>
       </c>
     </row>
     <row r="29">
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.493472260946874e-11</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081753</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669184</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473031</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990833</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071735</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437197</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081753</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669184</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473031</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862073</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071735</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485266</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247136098</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081753</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669184</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007743</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862073</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071735</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437197</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>338.991513165552</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081753</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669655</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007743</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473031</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862073</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071735</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558211</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348398</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135304</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663252</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817993</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162505</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175612</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159362</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626459968</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236456</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669184</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043703</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292892</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651512</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078717</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.94243786865943</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521082</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007743</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420737</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422555</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473031</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862073</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071735</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558211</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742403</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937726</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275942</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189887</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121556</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869227</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379625</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355159</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588129</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.688550039202</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106764</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920035</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417295</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515914</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670471</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532738</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099315</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467213</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34442,19 +34442,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899057</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315892</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367724</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924689</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674289</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.878697277065</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238402</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992753</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295388</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096347</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191307</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010443</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899066</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060448</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315892</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367724</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924689</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674289</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764189</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238402</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625051</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.33282074964584</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295225</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096331</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.342014319129</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010426</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899049</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306623</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236315892</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367724</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924689</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774261</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764189</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238402</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992753</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>199.0097390795305</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295225</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096331</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.342014319129</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010426</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899049</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306623</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299897</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315892</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367724</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492516</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774261</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674289</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.412613764189</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238402</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113767</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295225</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096331</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.342014319129</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010426</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899049</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306623</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.402257299897</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236315892</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039639</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240368187</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462633</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902885</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193452</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.48865122431</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683761</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924689</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774261</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.158224775407</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678965</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674289</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.412613764189</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238402</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113767</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549919</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016728</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111687</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930823</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819446</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980829</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986627</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919367</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,13 +38111,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
